--- a/Data/MoLi_Denoi_Results-11-15.xlsx
+++ b/Data/MoLi_Denoi_Results-11-15.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Working_Yurong\Working_Compressive_Sensing\MoLi\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3933EE-11DE-418B-9DD5-FF890957C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17535" windowHeight="11190" activeTab="1"/>
+    <workbookView xWindow="5597" yWindow="900" windowWidth="23829" windowHeight="20014" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mixed_KAIST" sheetId="2" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>BM3D</t>
   </si>
@@ -71,18 +77,20 @@
   <si>
     <t>PnP-MoLi</t>
   </si>
+  <si>
+    <t>MoLi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PnP-MoLi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,177 +102,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="6.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="6.5"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,194 +148,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -511,255 +196,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,65 +239,73 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>615043</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E33AF-0D88-8069-CF3E-6466E3448D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="8256814" cy="3291888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,24 +560,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="J182" sqref="J182"/>
+    <sheetView topLeftCell="A147" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.84166666666667" style="1"/>
+    <col min="1" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,43 +616,43 @@
         <v>23.831</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="2:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
-        <v>0.587</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="C2" s="3">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>0.664</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="E2" s="3">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F2" s="3">
-        <v>0.645</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="G2" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="H2" s="3">
-        <v>0.679</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="I2" s="3">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="J2" s="3">
-        <v>0.566</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="K2" s="3">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" ref="M2:M12" si="0">AVERAGE(B2:K2)</f>
-        <v>0.5085</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="2:13">
+        <v>0.50849999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>24.01</v>
       </c>
@@ -1234,46 +685,46 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>23.428</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="2:13">
+        <v>23.428000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C4" s="3">
         <v>0.505</v>
       </c>
       <c r="D4" s="3">
-        <v>0.651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E4" s="3">
-        <v>0.346</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="F4" s="3">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="G4" s="3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="H4" s="3">
-        <v>0.657</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="I4" s="3">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="J4" s="3">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="K4" s="3">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>0.4973</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="2:13">
+        <v>0.49730000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>24.02</v>
       </c>
@@ -1309,15 +760,15 @@
         <v>23.13</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="2:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
-        <v>0.586</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
       <c r="D6" s="3">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E6" s="3">
         <v>0.316</v>
@@ -1326,26 +777,26 @@
         <v>0.627</v>
       </c>
       <c r="G6" s="3">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="H6" s="3">
-        <v>0.652</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="I6" s="3">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="J6" s="3">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="K6" s="3">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>0.4955</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>24.24</v>
       </c>
@@ -1378,46 +829,46 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>23.403</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="2:13">
+        <v>23.402999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
-        <v>0.594</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="C8" s="3">
         <v>0.505</v>
       </c>
       <c r="D8" s="3">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="F8" s="3">
         <v>0.627</v>
       </c>
       <c r="G8" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="H8" s="3">
-        <v>0.656</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="I8" s="3">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="J8" s="3">
-        <v>0.554</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="K8" s="3">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>0.5015</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="2:13">
+        <v>0.50149999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>24.66</v>
       </c>
@@ -1453,12 +904,12 @@
       </c>
       <c r="M9" s="4">
         <f>AVERAGE(B9:L9)</f>
-        <v>24.2818181818182</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="2:13">
+        <v>24.281818181818199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="C10" s="3">
         <v>0.501</v>
@@ -1467,22 +918,22 @@
         <v>0.74</v>
       </c>
       <c r="E10" s="3">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F10" s="3">
-        <v>0.631</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="G10" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="H10" s="3">
-        <v>0.671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="I10" s="3">
         <v>0.432</v>
       </c>
       <c r="J10" s="3">
-        <v>0.619</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="K10" s="3">
         <v>0.37</v>
@@ -1492,10 +943,10 @@
       </c>
       <c r="M10" s="4">
         <f>AVERAGE(B10:L10)</f>
-        <v>0.522181818181818</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="2:13">
+        <v>0.52218181818181797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>23.79</v>
       </c>
@@ -1528,46 +979,46 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>23.232</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="2:13">
+        <v>23.231999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <v>0.635</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="C12" s="3">
         <v>0.5</v>
       </c>
       <c r="D12" s="3">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E12" s="3">
-        <v>0.346</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="F12" s="3">
-        <v>0.619</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="G12" s="3">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="H12" s="3">
-        <v>0.652</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="I12" s="3">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="J12" s="3">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="K12" s="3">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>0.501</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1603,46 +1054,46 @@
       </c>
       <c r="M14" s="4">
         <f>AVERAGE(B14:K14)</f>
-        <v>24.444</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="2:13">
+        <v>24.443999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <v>0.677</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="C15" s="3">
-        <v>0.559</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D15" s="3">
-        <v>0.671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>0.332</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F15" s="3">
-        <v>0.701</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="G15" s="3">
         <v>0.438</v>
       </c>
       <c r="H15" s="3">
-        <v>0.731</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="I15" s="3">
-        <v>0.411</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="J15" s="3">
-        <v>0.585</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="K15" s="3">
         <v>0.43</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15:M25" si="1">AVERAGE(B15:K15)</f>
-        <v>0.5535</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="2:13">
+        <v>0.55349999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>25.03</v>
       </c>
@@ -1678,43 +1129,43 @@
         <v>23.552</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C17" s="3">
-        <v>0.539</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D17" s="3">
-        <v>0.654</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="E17" s="3">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F17" s="3">
-        <v>0.684</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="G17" s="3">
         <v>0.43</v>
       </c>
       <c r="H17" s="3">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="I17" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J17" s="3">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="K17" s="3">
         <v>0.41</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="1"/>
-        <v>0.5376</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="2:13">
+        <v>0.53759999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>24.33</v>
       </c>
@@ -1747,46 +1198,46 @@
       </c>
       <c r="M18" s="4">
         <f t="shared" si="1"/>
-        <v>23.466</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="2:13">
+        <v>23.466000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>0.642</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C19" s="3">
-        <v>0.536</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D19" s="3">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E19" s="3">
         <v>0.315</v>
       </c>
       <c r="F19" s="3">
-        <v>0.683</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G19" s="3">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="H19" s="3">
-        <v>0.701</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="I19" s="3">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="J19" s="3">
-        <v>0.561</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="K19" s="3">
         <v>0.41</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="1"/>
-        <v>0.5313</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="2:13">
+        <v>0.53129999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>24.55</v>
       </c>
@@ -1819,46 +1270,46 @@
       </c>
       <c r="M20" s="4">
         <f t="shared" si="1"/>
-        <v>23.603</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="2:13">
+        <v>23.603000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C21" s="3">
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D21" s="3">
-        <v>0.652</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="E21" s="3">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F21" s="3">
-        <v>0.683</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G21" s="3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="H21" s="3">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="I21" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J21" s="3">
-        <v>0.567</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="K21" s="3">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="1"/>
-        <v>0.5332</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="2:13">
+        <v>0.53320000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>25.05</v>
       </c>
@@ -1894,46 +1345,46 @@
       </c>
       <c r="M22" s="4">
         <f>AVERAGE(B22:L22)</f>
-        <v>24.9545454545455</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="2:13">
+        <v>24.954545454545499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>0.629</v>
       </c>
       <c r="C23" s="3">
-        <v>0.526</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D23" s="3">
-        <v>0.523</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E23" s="3">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F23" s="3">
-        <v>0.684</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="G23" s="3">
         <v>0.42</v>
       </c>
       <c r="H23" s="3">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="I23" s="3">
-        <v>0.476</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="J23" s="3">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="K23" s="3">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="1"/>
-        <v>0.541</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="2:13">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>24.46</v>
       </c>
@@ -1966,18 +1417,18 @@
       </c>
       <c r="M24" s="4">
         <f t="shared" si="1"/>
-        <v>23.542</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="2:13">
+        <v>23.542000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C25" s="3">
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D25" s="3">
-        <v>0.647</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="E25" s="3">
         <v>0.318</v>
@@ -1986,26 +1437,26 @@
         <v>0.68</v>
       </c>
       <c r="G25" s="3">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="H25" s="3">
-        <v>0.701</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="I25" s="3">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="J25" s="3">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="K25" s="3">
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="1"/>
-        <v>0.5316</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:13">
+        <v>0.53159999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2041,46 +1492,46 @@
       </c>
       <c r="M27" s="4">
         <f>AVERAGE(B27:K27)</f>
-        <v>23.574</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="2:13">
+        <v>23.574000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D28" s="3">
-        <v>0.663</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="E28" s="3">
         <v>0.32</v>
       </c>
       <c r="F28" s="3">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="G28" s="3">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="H28" s="3">
-        <v>0.707</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="I28" s="3">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="J28" s="3">
-        <v>0.581</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="K28" s="3">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" ref="M28:M38" si="2">AVERAGE(B28:K28)</f>
         <v>0.5444</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="2:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>22.73</v>
       </c>
@@ -2113,18 +1564,18 @@
       </c>
       <c r="M29" s="4">
         <f t="shared" si="2"/>
-        <v>22.271</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" spans="2:13">
+        <v>22.271000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
-        <v>0.613</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="C30" s="3">
         <v>0.504</v>
       </c>
       <c r="D30" s="3">
-        <v>0.637</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="E30" s="3">
         <v>0.315</v>
@@ -2136,23 +1587,23 @@
         <v>0.4</v>
       </c>
       <c r="H30" s="3">
-        <v>0.676</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="I30" s="3">
         <v>0.375</v>
       </c>
       <c r="J30" s="3">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="K30" s="3">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="2"/>
-        <v>0.5186</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" spans="2:13">
+        <v>0.51859999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>22.65</v>
       </c>
@@ -2185,46 +1636,46 @@
       </c>
       <c r="M31" s="4">
         <f t="shared" si="2"/>
-        <v>22.345</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" spans="2:13">
+        <v>22.344999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
-        <v>0.605</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C32" s="3">
         <v>0.502</v>
       </c>
       <c r="D32" s="3">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E32" s="3">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F32" s="3">
-        <v>0.666</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="G32" s="3">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="H32" s="3">
-        <v>0.673</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="I32" s="3">
         <v>0.376</v>
       </c>
       <c r="J32" s="3">
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="K32" s="3">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="M32" s="4">
         <f t="shared" si="2"/>
-        <v>0.5165</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" spans="2:13">
+        <v>0.51649999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>24.64</v>
       </c>
@@ -2257,46 +1708,46 @@
       </c>
       <c r="M33" s="4">
         <f t="shared" si="2"/>
-        <v>22.536</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" spans="2:13">
+        <v>22.536000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
-        <v>0.593</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C34" s="3">
         <v>0.504</v>
       </c>
       <c r="D34" s="3">
-        <v>0.639</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E34" s="3">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>0.671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="G34" s="3">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="H34" s="3">
-        <v>0.672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="I34" s="3">
         <v>0.373</v>
       </c>
       <c r="J34" s="3">
-        <v>0.546</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="K34" s="3">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="M34" s="4">
         <f t="shared" si="2"/>
-        <v>0.5166</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" spans="2:13">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>24.64</v>
       </c>
@@ -2329,12 +1780,12 @@
       </c>
       <c r="M35" s="4">
         <f t="shared" si="2"/>
-        <v>24.179</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" spans="2:13">
+        <v>24.178999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
-        <v>0.594</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="C36" s="3">
         <v>0.504</v>
@@ -2343,32 +1794,32 @@
         <v>0.621</v>
       </c>
       <c r="E36" s="3">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F36" s="3">
-        <v>0.673</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="G36" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="H36" s="3">
-        <v>0.685</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="I36" s="3">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J36" s="3">
-        <v>0.635</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="K36" s="3">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="M36" s="4">
         <f t="shared" si="2"/>
-        <v>0.5346</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" spans="2:13">
+        <v>0.53459999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>22.83</v>
       </c>
@@ -2404,7 +1855,7 @@
         <v>22.331</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="2:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>0.61</v>
       </c>
@@ -2412,46 +1863,46 @@
         <v>0.5</v>
       </c>
       <c r="D38" s="3">
-        <v>0.634</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="E38" s="3">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>0.665</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G38" s="3">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="H38" s="3">
-        <v>0.673</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="I38" s="3">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="J38" s="3">
-        <v>0.541</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="K38" s="3">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="M38" s="4">
         <f t="shared" si="2"/>
-        <v>0.516</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" spans="1:13">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="2">
-        <v>0.614</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="C40" s="2">
         <v>34.6</v>
       </c>
       <c r="D40" s="2">
-        <v>36.73</v>
+        <v>36.729999999999997</v>
       </c>
       <c r="E40" s="2">
         <v>41.96</v>
@@ -2476,24 +1927,24 @@
       </c>
       <c r="M40" s="4">
         <f>AVERAGE(B40:K40)</f>
-        <v>31.1984</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" spans="2:13">
+        <v>31.198399999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>0.876</v>
       </c>
       <c r="C41" s="3">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D41" s="3">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E41" s="3">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="F41" s="3">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="G41" s="3">
         <v>0.87</v>
@@ -2502,25 +1953,25 @@
         <v>0.94</v>
       </c>
       <c r="I41" s="3">
-        <v>0.854</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="J41" s="3">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="K41" s="3">
-        <v>0.802</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" ref="M41:M103" si="3">AVERAGE(B41:K41)</f>
-        <v>0.8916</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" spans="2:13">
+        <f t="shared" ref="M41:M90" si="3">AVERAGE(B41:K41)</f>
+        <v>0.89159999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>33.39</v>
       </c>
       <c r="C42" s="3">
-        <v>34.87</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="D42" s="3">
         <v>37.06</v>
@@ -2529,7 +1980,7 @@
         <v>41.43</v>
       </c>
       <c r="F42" s="3">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="G42" s="3">
         <v>33.19</v>
@@ -2538,64 +1989,64 @@
         <v>34.47</v>
       </c>
       <c r="I42" s="3">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="J42" s="3">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="K42" s="3">
         <v>30.19</v>
       </c>
       <c r="M42" s="4">
         <f t="shared" si="3"/>
-        <v>34.665</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" spans="2:13">
+        <v>34.664999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C43" s="3">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D43" s="3">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E43" s="3">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="F43" s="3">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G43" s="3">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="H43" s="3">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="I43" s="3">
         <v>0.873</v>
       </c>
       <c r="J43" s="3">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="K43" s="3">
-        <v>0.807</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="M43" s="4">
         <f t="shared" si="3"/>
-        <v>0.8979</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" spans="2:13">
+        <v>0.89790000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>33.14</v>
       </c>
       <c r="C44" s="3">
-        <v>34.41</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="D44" s="3">
-        <v>36.62</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="E44" s="3">
         <v>40.19</v>
@@ -2620,51 +2071,51 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="3"/>
-        <v>34.228</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" spans="2:13">
+        <v>34.228000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>0.874</v>
       </c>
       <c r="C45" s="3">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D45" s="3">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E45" s="3">
-        <v>0.891</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="F45" s="3">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="G45" s="3">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="H45" s="3">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="I45" s="3">
-        <v>0.852</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="J45" s="3">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="K45" s="3">
-        <v>0.779</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="M45" s="4">
         <f t="shared" si="3"/>
-        <v>0.8836</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" spans="2:13">
+        <v>0.88360000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
-        <v>33.27</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="C46" s="3">
-        <v>34.45</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="D46" s="3">
         <v>36.92</v>
@@ -2673,16 +2124,16 @@
         <v>41.85</v>
       </c>
       <c r="F46" s="3">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="G46" s="3">
-        <v>32.98</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="H46" s="3">
         <v>34.18</v>
       </c>
       <c r="I46" s="3">
-        <v>32.16</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="J46" s="3">
         <v>35.11</v>
@@ -2692,46 +2143,46 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="3"/>
-        <v>34.476</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" spans="2:13">
+        <v>34.475999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="C47" s="3">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D47" s="3">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E47" s="3">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="F47" s="3">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="G47" s="3">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="H47" s="3">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="I47" s="3">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="J47" s="3">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="K47" s="3">
-        <v>0.817</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" si="3"/>
-        <v>0.9036</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" spans="2:13">
+        <v>0.90359999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>34.14</v>
       </c>
@@ -2763,53 +2214,53 @@
         <v>30.33</v>
       </c>
       <c r="L48" s="5">
-        <v>34.52</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="M48" s="4">
         <f>AVERAGE(B48:L48)</f>
-        <v>35.4318181818182</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" spans="2:13">
+        <v>35.431818181818201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="C49" s="3">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D49" s="3">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E49" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F49" s="3">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G49" s="3">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="H49" s="3">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I49" s="3">
-        <v>0.901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="J49" s="3">
         <v>0.93</v>
       </c>
       <c r="K49" s="3">
-        <v>0.822</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="L49" s="5">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="M49" s="4">
         <f>AVERAGE(B49:L49)</f>
-        <v>0.914727272727273</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" spans="2:13">
+        <v>0.91472727272727306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>33.14</v>
       </c>
@@ -2817,16 +2268,16 @@
         <v>34.29</v>
       </c>
       <c r="D50" s="3">
-        <v>36.34</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="E50" s="3">
-        <v>40.77</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="F50" s="3">
-        <v>33.45</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="G50" s="3">
-        <v>32.59</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="H50" s="3">
         <v>34.01</v>
@@ -2842,60 +2293,60 @@
       </c>
       <c r="M50" s="4">
         <f t="shared" si="3"/>
-        <v>34.102</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" spans="2:13">
+        <v>34.101999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C51" s="3">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D51" s="3">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="E51" s="3">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="F51" s="3">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="G51" s="3">
         <v>0.871</v>
       </c>
       <c r="H51" s="3">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I51" s="3">
-        <v>0.863</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="J51" s="3">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="K51" s="3">
-        <v>0.795</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="M51" s="4">
         <f t="shared" si="3"/>
-        <v>0.8882</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" spans="13:13">
+        <v>0.88819999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M52" s="4"/>
     </row>
-    <row r="53" ht="15.75" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>35.48</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="C53" s="2">
-        <v>33.41</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="D53" s="2">
-        <v>37.59</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="E53" s="2">
         <v>44.46</v>
@@ -2907,59 +2358,59 @@
         <v>31.93</v>
       </c>
       <c r="H53" s="2">
-        <v>33.37</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="I53" s="2">
         <v>31.73</v>
       </c>
       <c r="J53" s="2">
-        <v>35.09</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="K53" s="2">
         <v>30.58</v>
       </c>
       <c r="M53" s="4">
         <f t="shared" si="3"/>
-        <v>34.824</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" spans="2:13">
+        <v>34.823999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C54" s="3">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D54" s="3">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E54" s="3">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="F54" s="3">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G54" s="3">
-        <v>0.891</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="H54" s="3">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I54" s="3">
-        <v>0.868</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="J54" s="3">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="K54" s="3">
-        <v>0.856</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="M54" s="4">
         <f t="shared" si="3"/>
-        <v>0.9108</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" spans="2:13">
+        <v>0.91080000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>33.97</v>
       </c>
@@ -2985,7 +2436,7 @@
         <v>31.75</v>
       </c>
       <c r="J55" s="3">
-        <v>35.37</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="K55" s="3">
         <v>30.53</v>
@@ -2995,43 +2446,43 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="56" ht="15.75" spans="2:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>0.89</v>
       </c>
       <c r="C56" s="3">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D56" s="3">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E56" s="3">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="F56" s="3">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="G56" s="3">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="H56" s="3">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="I56" s="3">
         <v>0.875</v>
       </c>
       <c r="J56" s="3">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="K56" s="3">
         <v>0.86</v>
       </c>
       <c r="M56" s="4">
         <f t="shared" si="3"/>
-        <v>0.9119</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" spans="2:13">
+        <v>0.91190000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>35.26</v>
       </c>
@@ -3067,43 +2518,43 @@
         <v>34.64</v>
       </c>
     </row>
-    <row r="58" ht="15.75" spans="2:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C58" s="3">
         <v>0.878</v>
       </c>
       <c r="D58" s="3">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E58" s="3">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F58" s="3">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="G58" s="3">
         <v>0.875</v>
       </c>
       <c r="H58" s="3">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I58" s="3">
-        <v>0.861</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="J58" s="3">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="K58" s="3">
-        <v>0.829</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="3"/>
-        <v>0.9007</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" spans="2:13">
+        <v>0.90069999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>35.31</v>
       </c>
@@ -3123,59 +2574,59 @@
         <v>31.86</v>
       </c>
       <c r="H59" s="3">
-        <v>33.45</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="I59" s="3">
         <v>31.61</v>
       </c>
       <c r="J59" s="3">
-        <v>35.27</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="K59" s="3">
         <v>30.47</v>
       </c>
       <c r="M59" s="4">
         <f t="shared" si="3"/>
-        <v>34.836</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" spans="2:13">
+        <v>34.835999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C60" s="3">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D60" s="3">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E60" s="3">
         <v>0.97</v>
       </c>
       <c r="F60" s="3">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="G60" s="3">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="H60" s="3">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I60" s="3">
         <v>0.878</v>
       </c>
       <c r="J60" s="3">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="K60" s="3">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="M60" s="4">
         <f t="shared" si="3"/>
-        <v>0.9149</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" spans="2:13">
+        <v>0.91490000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>35.81</v>
       </c>
@@ -3209,47 +2660,47 @@
       <c r="L61" s="5"/>
       <c r="M61" s="4">
         <f>AVERAGE(B61:L61)</f>
-        <v>35.034</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" spans="2:13">
+        <v>35.033999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C62" s="3">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D62" s="3">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E62" s="3">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="F62" s="3">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="G62" s="3">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="H62" s="3">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I62" s="3">
         <v>0.879</v>
       </c>
       <c r="J62" s="3">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="K62" s="3">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="4">
         <f>AVERAGE(B62:L62)</f>
-        <v>0.913</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" spans="2:13">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>35.19</v>
       </c>
@@ -3269,62 +2720,62 @@
         <v>31.77</v>
       </c>
       <c r="H63" s="3">
-        <v>33.37</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="I63" s="3">
         <v>31.5</v>
       </c>
       <c r="J63" s="3">
-        <v>34.98</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="K63" s="3">
         <v>30.23</v>
       </c>
       <c r="M63" s="4">
         <f t="shared" si="3"/>
-        <v>34.599</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" spans="2:13">
+        <v>34.598999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C64" s="3">
         <v>0.88</v>
       </c>
       <c r="D64" s="3">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E64" s="3">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="F64" s="3">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="G64" s="3">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="H64" s="3">
-        <v>0.901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I64" s="3">
-        <v>0.867</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="J64" s="3">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="K64" s="3">
         <v>0.84</v>
       </c>
       <c r="M64" s="4">
         <f t="shared" si="3"/>
-        <v>0.9044</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" spans="13:13">
+        <v>0.90439999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M65" s="4"/>
     </row>
-    <row r="66" ht="15.75" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -3332,10 +2783,10 @@
         <v>34.68</v>
       </c>
       <c r="C66" s="2">
-        <v>35.77</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="D66" s="2">
-        <v>34.91</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="E66" s="2">
         <v>39.83</v>
@@ -3356,50 +2807,50 @@
         <v>35.86</v>
       </c>
       <c r="K66" s="2">
-        <v>33.88</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="M66" s="4">
         <f t="shared" si="3"/>
-        <v>35.249</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" spans="2:13">
+        <v>35.249000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C67" s="3">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D67" s="3">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="E67" s="3">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="F67" s="3">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="G67" s="3">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="H67" s="3">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="I67" s="3">
         <v>0.873</v>
       </c>
       <c r="J67" s="3">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="K67" s="3">
         <v>0.89</v>
       </c>
       <c r="M67" s="4">
         <f t="shared" si="3"/>
-        <v>0.8926</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" spans="2:13">
+        <v>0.89259999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>35.68</v>
       </c>
@@ -3407,7 +2858,7 @@
         <v>35.24</v>
       </c>
       <c r="D68" s="3">
-        <v>33.45</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="E68" s="3">
         <v>38.57</v>
@@ -3416,10 +2867,10 @@
         <v>33.29</v>
       </c>
       <c r="G68" s="3">
-        <v>34.23</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="H68" s="3">
-        <v>34.09</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="I68" s="3">
         <v>34.5</v>
@@ -3432,46 +2883,46 @@
       </c>
       <c r="M68" s="4">
         <f t="shared" si="3"/>
-        <v>34.749</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" spans="2:13">
+        <v>34.749000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="C69" s="3">
-        <v>0.901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D69" s="3">
         <v>0.874</v>
       </c>
       <c r="E69" s="3">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="F69" s="3">
-        <v>0.901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G69" s="3">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="H69" s="3">
         <v>0.9</v>
       </c>
       <c r="I69" s="3">
-        <v>0.883</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="J69" s="3">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="K69" s="3">
         <v>0.89</v>
       </c>
       <c r="M69" s="4">
         <f t="shared" si="3"/>
-        <v>0.8947</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" spans="2:13">
+        <v>0.89470000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>33.82</v>
       </c>
@@ -3491,73 +2942,73 @@
         <v>33.85</v>
       </c>
       <c r="H70" s="3">
-        <v>33.98</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="I70" s="3">
         <v>34.06</v>
       </c>
       <c r="J70" s="3">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="K70" s="3">
         <v>32.72</v>
       </c>
       <c r="M70" s="4">
         <f t="shared" si="3"/>
-        <v>34.223</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" spans="2:13">
+        <v>34.222999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C71" s="3">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D71" s="3">
-        <v>0.868</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="E71" s="3">
-        <v>0.868</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="F71" s="3">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G71" s="3">
         <v>0.879</v>
       </c>
       <c r="H71" s="3">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="I71" s="3">
-        <v>0.867</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="J71" s="3">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="K71" s="3">
-        <v>0.865</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="M71" s="4">
         <f t="shared" si="3"/>
-        <v>0.8786</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" spans="2:13">
+        <v>0.87860000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>33.58</v>
       </c>
       <c r="C72" s="3">
-        <v>34.87</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="D72" s="3">
         <v>33.44</v>
       </c>
       <c r="E72" s="3">
-        <v>38.48</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="F72" s="3">
-        <v>33.12</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="G72" s="3">
         <v>33.93</v>
@@ -3572,55 +3023,55 @@
         <v>34.76</v>
       </c>
       <c r="K72" s="3">
-        <v>33.09</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="M72" s="4">
         <f t="shared" si="3"/>
         <v>34.32</v>
       </c>
     </row>
-    <row r="73" ht="15.75" spans="2:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>0.89</v>
       </c>
       <c r="C73" s="3">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D73" s="3">
         <v>0.876</v>
       </c>
       <c r="E73" s="3">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F73" s="3">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="G73" s="3">
         <v>0.9</v>
       </c>
       <c r="H73" s="3">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="I73" s="3">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="J73" s="3">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="K73" s="3">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="M73" s="4">
         <f t="shared" si="3"/>
-        <v>0.8939</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" spans="2:13">
+        <v>0.89390000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>35.61</v>
       </c>
       <c r="C74" s="3">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="D74" s="3">
         <v>35.01</v>
@@ -3641,59 +3092,59 @@
         <v>33.54</v>
       </c>
       <c r="J74" s="3">
-        <v>36.62</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="K74" s="3">
         <v>34.94</v>
       </c>
       <c r="L74" s="5">
-        <v>34.87</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="M74" s="4">
         <f>AVERAGE(B74:L74)</f>
-        <v>35.7845454545455</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" spans="2:13">
+        <v>35.784545454545501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="C75" s="3">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D75" s="3">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="E75" s="3">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="F75" s="3">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="G75" s="3">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H75" s="3">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="I75" s="3">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="J75" s="3">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="K75" s="3">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="L75" s="5">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="M75" s="4">
         <f>AVERAGE(B75:L75)</f>
         <v>0.913909090909091</v>
       </c>
     </row>
-    <row r="76" ht="15.75" spans="2:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
         <v>33.51</v>
       </c>
@@ -3704,10 +3155,10 @@
         <v>32.96</v>
       </c>
       <c r="E76" s="3">
-        <v>38.37</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="F76" s="3">
-        <v>32.52</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="G76" s="3">
         <v>33.82</v>
@@ -3716,59 +3167,59 @@
         <v>33.57</v>
       </c>
       <c r="I76" s="3">
-        <v>34.02</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="J76" s="3">
-        <v>34.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="K76" s="3">
-        <v>32.73</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="M76" s="4">
         <f t="shared" si="3"/>
-        <v>34.076</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" spans="2:13">
+        <v>34.076000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C77" s="3">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D77" s="3">
-        <v>0.867</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E77" s="3">
         <v>0.877</v>
       </c>
       <c r="F77" s="3">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G77" s="3">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="H77" s="3">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I77" s="3">
         <v>0.873</v>
       </c>
       <c r="J77" s="3">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="K77" s="3">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="M77" s="4">
         <f t="shared" si="3"/>
-        <v>0.8826</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" spans="13:13">
+        <v>0.88260000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M78" s="4"/>
     </row>
-    <row r="79" ht="15.75" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -3794,7 +3245,7 @@
         <v>41.29</v>
       </c>
       <c r="I79" s="2">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="J79" s="2">
         <v>41.07</v>
@@ -3804,46 +3255,46 @@
       </c>
       <c r="M79" s="4">
         <f t="shared" si="3"/>
-        <v>40.624</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" spans="2:13">
+        <v>40.624000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C80" s="3">
         <v>0.96</v>
       </c>
       <c r="D80" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E80" s="3">
-        <v>0.982</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="F80" s="3">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G80" s="3">
         <v>0.97</v>
       </c>
       <c r="H80" s="3">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="I80" s="3">
         <v>0.96</v>
       </c>
       <c r="J80" s="3">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="K80" s="3">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="M80" s="4">
         <f t="shared" si="3"/>
-        <v>0.9713</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" spans="2:13">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
         <v>39.97</v>
       </c>
@@ -3857,7 +3308,7 @@
         <v>46.89</v>
       </c>
       <c r="F81" s="3">
-        <v>40.73</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="G81" s="3">
         <v>39.99</v>
@@ -3876,51 +3327,51 @@
       </c>
       <c r="M81" s="4">
         <f t="shared" si="3"/>
-        <v>40.897</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" spans="2:13">
+        <v>40.896999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C82" s="3">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D82" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E82" s="3">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F82" s="3">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="G82" s="3">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="H82" s="3">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="I82" s="3">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="J82" s="3">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="K82" s="3">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="M82" s="4">
         <f t="shared" si="3"/>
-        <v>0.9729</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" spans="2:13">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
-        <v>38.95</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="C83" s="3">
-        <v>38.91</v>
+        <v>38.909999999999997</v>
       </c>
       <c r="D83" s="3">
         <v>42.17</v>
@@ -3929,13 +3380,13 @@
         <v>45.37</v>
       </c>
       <c r="F83" s="3">
-        <v>39.98</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="G83" s="3">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H83" s="3">
-        <v>40.41</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="I83" s="3">
         <v>38.21</v>
@@ -3948,46 +3399,46 @@
       </c>
       <c r="M83" s="4">
         <f t="shared" si="3"/>
-        <v>39.91</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" spans="2:13">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
         <v>0.95</v>
       </c>
       <c r="C84" s="3">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="D84" s="3">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E84" s="3">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="F84" s="3">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="G84" s="3">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H84" s="3">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="I84" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="J84" s="3">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="K84" s="3">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="M84" s="4">
         <f t="shared" si="3"/>
-        <v>0.9552</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" spans="2:13">
+        <v>0.95520000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
         <v>39.51</v>
       </c>
@@ -4013,17 +3464,17 @@
         <v>38.31</v>
       </c>
       <c r="J85" s="3">
-        <v>40.59</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="K85" s="3">
-        <v>37.59</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="M85" s="4">
         <f t="shared" si="3"/>
-        <v>40.532</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="2:13">
+        <v>40.531999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
         <v>0.96</v>
       </c>
@@ -4031,35 +3482,35 @@
         <v>0.96</v>
       </c>
       <c r="D86" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E86" s="3">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F86" s="3">
         <v>0.98</v>
       </c>
       <c r="G86" s="3">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="H86" s="3">
         <v>0.98</v>
       </c>
       <c r="I86" s="3">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="J86" s="3">
         <v>0.97</v>
       </c>
       <c r="K86" s="3">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="M86" s="4">
         <f t="shared" si="3"/>
-        <v>0.9697</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" spans="2:13">
+        <v>0.96970000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B87" s="3">
         <v>40.03</v>
       </c>
@@ -4076,7 +3527,7 @@
         <v>40.35</v>
       </c>
       <c r="G87" s="3">
-        <v>40.16</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="H87" s="3">
         <v>41.32</v>
@@ -4092,51 +3543,51 @@
       </c>
       <c r="M87" s="4">
         <f t="shared" si="3"/>
-        <v>40.724</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" spans="2:13">
+        <v>40.723999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B88" s="3">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="C88" s="3">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D88" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E88" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="F88" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G88" s="3">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="H88" s="3">
-        <v>0.977</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="I88" s="3">
         <v>0.96</v>
       </c>
       <c r="J88" s="3">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="K88" s="3">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="M88" s="4">
         <f t="shared" si="3"/>
-        <v>0.9675</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" spans="2:13">
+        <v>0.96750000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B89" s="3">
         <v>38.94</v>
       </c>
       <c r="C89" s="3">
-        <v>38.91</v>
+        <v>38.909999999999997</v>
       </c>
       <c r="D89" s="3">
         <v>41.47</v>
@@ -4145,10 +3596,10 @@
         <v>45.36</v>
       </c>
       <c r="F89" s="3">
-        <v>39.66</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="G89" s="3">
-        <v>38.95</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="H89" s="3">
         <v>40.15</v>
@@ -4164,49 +3615,49 @@
       </c>
       <c r="M89" s="4">
         <f t="shared" si="3"/>
-        <v>39.941</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" spans="2:13">
+        <v>39.941000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B90" s="3">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="C90" s="3">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D90" s="3">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E90" s="3">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F90" s="3">
-        <v>0.973</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="G90" s="3">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H90" s="3">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="I90" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="J90" s="3">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="K90" s="3">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="M90" s="4">
         <f t="shared" si="3"/>
-        <v>0.9582</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" spans="13:13">
+        <v>0.95820000000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M91" s="4"/>
     </row>
-    <row r="92" ht="15.75" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -4232,56 +3683,56 @@
         <v>42.13</v>
       </c>
       <c r="I92" s="2">
-        <v>39.23</v>
+        <v>39.229999999999997</v>
       </c>
       <c r="J92" s="2">
-        <v>40.84</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="K92" s="2">
-        <v>38.55</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="M92" s="4">
         <f t="shared" ref="M92:M103" si="4">AVERAGE(B92:K92)</f>
         <v>41.055</v>
       </c>
     </row>
-    <row r="93" ht="15.75" spans="2:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B93" s="3">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="C93" s="3">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="D93" s="3">
-        <v>0.977</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="E93" s="3">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="F93" s="3">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="G93" s="3">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H93" s="3">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I93" s="3">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="J93" s="3">
-        <v>0.973</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="K93" s="3">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="M93" s="4">
         <f t="shared" si="4"/>
-        <v>0.9745</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" spans="2:13">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B94" s="3">
         <v>40.25</v>
       </c>
@@ -4314,46 +3765,46 @@
       </c>
       <c r="M94" s="4">
         <f t="shared" si="4"/>
-        <v>41.286</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" spans="2:13">
+        <v>41.286000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B95" s="3">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C95" s="3">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="D95" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E95" s="3">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F95" s="3">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="G95" s="3">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="H95" s="3">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I95" s="3">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="J95" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K95" s="3">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="M95" s="4">
         <f t="shared" si="4"/>
-        <v>0.9762</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" spans="2:13">
+        <v>0.97619999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B96" s="3">
         <v>39.22</v>
       </c>
@@ -4370,7 +3821,7 @@
         <v>40.36</v>
       </c>
       <c r="G96" s="3">
-        <v>39.52</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="H96" s="3">
         <v>41.39</v>
@@ -4379,7 +3830,7 @@
         <v>39.33</v>
       </c>
       <c r="J96" s="3">
-        <v>39.77</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="K96" s="3">
         <v>38.11</v>
@@ -4389,48 +3840,48 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="97" ht="15.75" spans="2:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B97" s="3">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="C97" s="3">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D97" s="3">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E97" s="3">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F97" s="3">
         <v>0.98</v>
       </c>
       <c r="G97" s="3">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="H97" s="3">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="I97" s="3">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="J97" s="3">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="K97" s="3">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="M97" s="4">
         <f t="shared" si="4"/>
-        <v>0.9644</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" spans="2:13">
+        <v>0.96440000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B98" s="3">
-        <v>39.88</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="C98" s="3">
-        <v>40.05</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="D98" s="3">
         <v>42.52</v>
@@ -4461,43 +3912,43 @@
         <v>41.003</v>
       </c>
     </row>
-    <row r="99" ht="15.75" spans="2:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B99" s="3">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C99" s="3">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D99" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E99" s="3">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F99" s="3">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="G99" s="3">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="H99" s="3">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="I99" s="3">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="J99" s="3">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="K99" s="3">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="M99" s="4">
         <f t="shared" si="4"/>
         <v>0.9718</v>
       </c>
     </row>
-    <row r="100" ht="15.75" spans="2:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B100" s="3">
         <v>40.39</v>
       </c>
@@ -4530,48 +3981,48 @@
       </c>
       <c r="M100" s="4">
         <f t="shared" si="4"/>
-        <v>41.332</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="2:13">
+        <v>41.332000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B101" s="3">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C101" s="3">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="D101" s="3">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E101" s="3">
         <v>0.98</v>
       </c>
       <c r="F101" s="3">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G101" s="3">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="H101" s="3">
-        <v>0.982</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I101" s="3">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="J101" s="3">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="K101" s="3">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M101" s="4">
         <f t="shared" si="4"/>
-        <v>0.9726</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="2:13">
+        <v>0.97260000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B102" s="3">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C102" s="3">
         <v>39.21</v>
@@ -4598,51 +4049,50 @@
         <v>39.71</v>
       </c>
       <c r="K102" s="3">
-        <v>38.27</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="M102" s="4">
         <f t="shared" si="4"/>
-        <v>40.365</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" spans="2:13">
+        <v>40.365000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B103" s="3">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="C103" s="3">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D103" s="3">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E103" s="3">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F103" s="3">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G103" s="3">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="H103" s="3">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="I103" s="3">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="J103" s="3">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="K103" s="3">
         <v>0.96</v>
       </c>
       <c r="M103" s="4">
         <f t="shared" si="4"/>
-        <v>0.9628</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75"/>
-    <row r="105" ht="15.75" spans="1:13">
+        <v>0.96279999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -4650,7 +4100,7 @@
         <v>37.44</v>
       </c>
       <c r="C105" s="2">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="D105" s="2">
         <v>40</v>
@@ -4659,13 +4109,13 @@
         <v>43.46</v>
       </c>
       <c r="F105" s="2">
-        <v>37.84</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="G105" s="6">
         <v>36.49</v>
       </c>
       <c r="H105" s="2">
-        <v>38.12</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="I105" s="2">
         <v>35.89</v>
@@ -4678,46 +4128,46 @@
       </c>
       <c r="M105" s="4">
         <f t="shared" ref="M105:M116" si="5">AVERAGE(B105:K105)</f>
-        <v>38.019</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" spans="2:13">
+        <v>38.018999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B106" s="3">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="C106" s="3">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D106" s="3">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E106" s="3">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="F106" s="3">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G106" s="7">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="H106" s="3">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="I106" s="3">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="J106" s="7">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="K106" s="3">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="M106" s="4">
         <f t="shared" si="5"/>
-        <v>0.9442</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" spans="2:13">
+        <v>0.94420000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B107" s="3">
         <v>37.42</v>
       </c>
@@ -4731,7 +4181,7 @@
         <v>43.54</v>
       </c>
       <c r="F107" s="3">
-        <v>37.23</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="G107" s="7">
         <v>36.6</v>
@@ -4743,53 +4193,53 @@
         <v>35.68</v>
       </c>
       <c r="J107" s="3">
-        <v>38.45</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="K107" s="3">
         <v>35.5</v>
       </c>
       <c r="M107" s="4">
         <f t="shared" si="5"/>
-        <v>37.851</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" spans="2:13">
+        <v>37.850999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B108" s="3">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C108" s="3">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D108" s="3">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E108" s="3">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="F108" s="3">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G108" s="7">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="H108" s="3">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="I108" s="3">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="J108" s="3">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="K108" s="3">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="M108" s="4">
         <f t="shared" si="5"/>
-        <v>0.941</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" spans="2:13">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B109" s="3">
         <v>36.28</v>
       </c>
@@ -4809,7 +4259,7 @@
         <v>36.04</v>
       </c>
       <c r="H109" s="3">
-        <v>37.16</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="I109" s="3">
         <v>35.19</v>
@@ -4818,50 +4268,50 @@
         <v>36.26</v>
       </c>
       <c r="K109" s="3">
-        <v>34.77</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="M109" s="4">
         <f t="shared" si="5"/>
-        <v>36.923</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" spans="2:13">
+        <v>36.923000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B110" s="3">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="C110" s="3">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D110" s="3">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E110" s="3">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="F110" s="3">
         <v>0.94</v>
       </c>
       <c r="G110" s="3">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="H110" s="3">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="I110" s="3">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="J110" s="3">
         <v>0.89</v>
       </c>
       <c r="K110" s="3">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="M110" s="4">
         <f t="shared" si="5"/>
-        <v>0.9127</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" spans="2:13">
+        <v>0.91269999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B111" s="3">
         <v>36.97</v>
       </c>
@@ -4878,10 +4328,10 @@
         <v>36.5</v>
       </c>
       <c r="G111" s="3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="H111" s="3">
-        <v>37.48</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="I111" s="3">
         <v>35.5</v>
@@ -4894,46 +4344,46 @@
       </c>
       <c r="M111" s="4">
         <f t="shared" si="5"/>
-        <v>37.498</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" spans="2:13">
+        <v>37.497999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B112" s="3">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="C112" s="3">
         <v>0.92</v>
       </c>
       <c r="D112" s="3">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E112" s="3">
         <v>0.95</v>
       </c>
       <c r="F112" s="3">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="G112" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="H112" s="3">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="I112" s="3">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="J112" s="3">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="K112" s="3">
         <v>0.94</v>
       </c>
       <c r="M112" s="4">
         <f t="shared" si="5"/>
-        <v>0.9393</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" spans="2:13">
+        <v>0.93930000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B113" s="3">
         <v>37.4</v>
       </c>
@@ -4956,7 +4406,7 @@
         <v>37.92</v>
       </c>
       <c r="I113" s="3">
-        <v>36.27</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="J113" s="3">
         <v>36.68</v>
@@ -4966,51 +4416,51 @@
       </c>
       <c r="M113" s="4">
         <f t="shared" si="5"/>
-        <v>37.834</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" spans="2:13">
+        <v>37.834000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B114" s="3">
         <v>0.93</v>
       </c>
       <c r="C114" s="3">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D114" s="3">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E114" s="3">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="F114" s="3">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="G114" s="3">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H114" s="3">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="I114" s="3">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="J114" s="3">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="K114" s="3">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="M114" s="4">
         <f t="shared" si="5"/>
-        <v>0.9377</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" spans="2:13">
+        <v>0.93769999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B115" s="3">
         <v>36.26</v>
       </c>
       <c r="C115" s="3">
-        <v>35.87</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="D115" s="3">
         <v>37.65</v>
@@ -5025,10 +4475,10 @@
         <v>35.79</v>
       </c>
       <c r="H115" s="3">
-        <v>36.62</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="I115" s="3">
-        <v>35.23</v>
+        <v>35.229999999999997</v>
       </c>
       <c r="J115" s="3">
         <v>35.78</v>
@@ -5038,46 +4488,46 @@
       </c>
       <c r="M115" s="4">
         <f t="shared" si="5"/>
-        <v>36.537</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" spans="2:13">
+        <v>36.536999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B116" s="3">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="C116" s="3">
         <v>0.9</v>
       </c>
       <c r="D116" s="3">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="E116" s="3">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="F116" s="3">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="G116" s="3">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="H116" s="3">
         <v>0.93</v>
       </c>
       <c r="I116" s="3">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J116" s="3">
-        <v>0.887</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="K116" s="3">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="M116" s="4">
         <f t="shared" si="5"/>
-        <v>0.9127</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" spans="1:13">
+        <v>0.91269999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -5085,7 +4535,7 @@
         <v>35.46</v>
       </c>
       <c r="C118" s="2">
-        <v>34.77</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="D118" s="2">
         <v>37.86</v>
@@ -5103,56 +4553,56 @@
         <v>36.18</v>
       </c>
       <c r="I118" s="2">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="J118" s="2">
-        <v>36.38</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="K118" s="2">
-        <v>32.62</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="M118" s="4">
         <f t="shared" ref="M118:M129" si="6">AVERAGE(B118:K118)</f>
-        <v>35.848</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" spans="2:13">
+        <v>35.847999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B119" s="3">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="C119" s="3">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D119" s="3">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E119" s="3">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="F119" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G119" s="3">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H119" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="I119" s="3">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J119" s="3">
         <v>0.92</v>
       </c>
       <c r="K119" s="3">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="M119" s="4">
         <f t="shared" si="6"/>
-        <v>0.9253</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" spans="2:13">
+        <v>0.92530000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B120" s="3">
         <v>35.21</v>
       </c>
@@ -5166,10 +4616,10 @@
         <v>43.18</v>
       </c>
       <c r="F120" s="3">
-        <v>35.45</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="G120" s="3">
-        <v>34.59</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="H120" s="3">
         <v>35.5</v>
@@ -5178,55 +4628,55 @@
         <v>33.01</v>
       </c>
       <c r="J120" s="3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="K120" s="3">
         <v>33.28</v>
       </c>
       <c r="M120" s="4">
         <f t="shared" si="6"/>
-        <v>35.818</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" spans="2:13">
+        <v>35.817999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B121" s="3">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C121" s="3">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D121" s="3">
         <v>0.94</v>
       </c>
       <c r="E121" s="3">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="F121" s="3">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G121" s="3">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="H121" s="3">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="I121" s="3">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J121" s="3">
-        <v>0.928</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="K121" s="3">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="M121" s="4">
         <f t="shared" si="6"/>
-        <v>0.9267</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" spans="2:13">
+        <v>0.92669999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B122" s="3">
-        <v>35.09</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="C122" s="3">
         <v>34.69</v>
@@ -5244,7 +4694,7 @@
         <v>33.79</v>
       </c>
       <c r="H122" s="3">
-        <v>35.45</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="I122" s="3">
         <v>32.68</v>
@@ -5253,50 +4703,50 @@
         <v>36.08</v>
       </c>
       <c r="K122" s="3">
-        <v>32.73</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="M122" s="4">
         <f t="shared" si="6"/>
-        <v>35.459</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" spans="2:13">
+        <v>35.459000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B123" s="3">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C123" s="3">
         <v>0.89</v>
       </c>
       <c r="D123" s="3">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="E123" s="3">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="F123" s="3">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="G123" s="3">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H123" s="3">
         <v>0.93</v>
       </c>
       <c r="I123" s="3">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="J123" s="3">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="K123" s="3">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="M123" s="4">
         <f t="shared" si="6"/>
-        <v>0.9109</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" spans="2:13">
+        <v>0.91090000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B124" s="3">
         <v>35.49</v>
       </c>
@@ -5310,16 +4760,16 @@
         <v>43.19</v>
       </c>
       <c r="F124" s="3">
-        <v>35.55</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="G124" s="3">
-        <v>34.09</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="H124" s="3">
-        <v>36.12</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="I124" s="3">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="J124" s="3">
         <v>36.17</v>
@@ -5329,51 +4779,51 @@
       </c>
       <c r="M124" s="4">
         <f t="shared" si="6"/>
-        <v>35.844</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" spans="2:13">
+        <v>35.844000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B125" s="3">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C125" s="3">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D125" s="3">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="E125" s="3">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="F125" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G125" s="3">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H125" s="3">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="I125" s="3">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="J125" s="3">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="K125" s="3">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="M125" s="4">
         <f t="shared" si="6"/>
-        <v>0.9248</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" spans="2:13">
+        <v>0.92479999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B126" s="3">
         <v>35.71</v>
       </c>
       <c r="C126" s="3">
-        <v>35.09</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="D126" s="3">
         <v>37.29</v>
@@ -5388,67 +4838,67 @@
         <v>33.86</v>
       </c>
       <c r="H126" s="3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="I126" s="3">
         <v>33.43</v>
       </c>
       <c r="J126" s="3">
-        <v>37.12</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="K126" s="3">
         <v>32.83</v>
       </c>
       <c r="M126" s="4">
         <f t="shared" si="6"/>
-        <v>36.029</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" spans="2:13">
+        <v>36.029000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B127" s="3">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C127" s="3">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D127" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E127" s="3">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="F127" s="3">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="G127" s="3">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H127" s="3">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="I127" s="3">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J127" s="3">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="K127" s="3">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="M127" s="4">
         <f t="shared" si="6"/>
-        <v>0.9281</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" spans="2:13">
+        <v>0.92810000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B128" s="3">
         <v>35.25</v>
       </c>
       <c r="C128" s="3">
-        <v>34.84</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="D128" s="3">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="E128" s="3">
         <v>42.68</v>
@@ -5457,13 +4907,13 @@
         <v>34.61</v>
       </c>
       <c r="G128" s="3">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="H128" s="3">
         <v>35.83</v>
       </c>
       <c r="I128" s="3">
-        <v>32.62</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="J128" s="3">
         <v>36.32</v>
@@ -5476,43 +4926,43 @@
         <v>35.494</v>
       </c>
     </row>
-    <row r="129" ht="15.75" spans="2:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B129" s="3">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C129" s="3">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D129" s="3">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E129" s="3">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F129" s="3">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="G129" s="3">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H129" s="3">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I129" s="3">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="J129" s="3">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="K129" s="3">
-        <v>0.901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="M129" s="4">
         <f t="shared" si="6"/>
-        <v>0.9167</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" spans="1:13">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -5548,46 +4998,46 @@
       </c>
       <c r="M131" s="4">
         <f t="shared" ref="M131:M155" si="7">AVERAGE(B131:K131)</f>
-        <v>22.685</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" spans="2:13">
+        <v>22.684999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B132" s="3">
-        <v>0.619</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C132" s="3">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D132" s="3">
         <v>0.622</v>
       </c>
       <c r="E132" s="3">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F132" s="3">
-        <v>0.682</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="G132" s="3">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="H132" s="3">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="I132" s="3">
         <v>0.37</v>
       </c>
       <c r="J132" s="3">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="K132" s="3">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="M132" s="4">
         <f t="shared" si="7"/>
         <v>0.496</v>
       </c>
     </row>
-    <row r="133" ht="15.75" spans="2:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B133" s="3">
         <v>23.47</v>
       </c>
@@ -5620,46 +5070,46 @@
       </c>
       <c r="M133" s="4">
         <f t="shared" si="7"/>
-        <v>22.248</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" spans="2:13">
+        <v>22.248000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B134" s="3">
-        <v>0.617</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C134" s="3">
         <v>0.62</v>
       </c>
       <c r="D134" s="3">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E134" s="3">
-        <v>0.298</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="F134" s="3">
-        <v>0.521</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="G134" s="3">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="H134" s="3">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I134" s="3">
         <v>0.371</v>
       </c>
       <c r="J134" s="3">
-        <v>0.537</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="K134" s="3">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="M134" s="4">
         <f t="shared" si="7"/>
-        <v>0.4846</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" spans="2:13">
+        <v>0.48459999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B135" s="3">
         <v>23.44</v>
       </c>
@@ -5695,43 +5145,43 @@
         <v>22.032</v>
       </c>
     </row>
-    <row r="136" ht="15.75" spans="2:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B136" s="3">
         <v>0.61</v>
       </c>
       <c r="C136" s="3">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D136" s="3">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="E136" s="3">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F136" s="3">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G136" s="3">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="H136" s="3">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="I136" s="3">
         <v>0.372</v>
       </c>
       <c r="J136" s="3">
-        <v>0.541</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="K136" s="3">
-        <v>0.462</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="M136" s="4">
         <f t="shared" si="7"/>
-        <v>0.4837</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" spans="2:13">
+        <v>0.48370000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B137" s="3">
         <v>23.49</v>
       </c>
@@ -5767,43 +5217,43 @@
         <v>21.956</v>
       </c>
     </row>
-    <row r="138" ht="15.75" spans="2:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B138" s="3">
-        <v>0.614</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="C138" s="3">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="3">
-        <v>0.616</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E138" s="3">
         <v>0.3</v>
       </c>
       <c r="F138" s="3">
-        <v>0.541</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="G138" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="H138" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="I138" s="3">
         <v>0.372</v>
       </c>
       <c r="J138" s="3">
-        <v>0.539</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="K138" s="3">
-        <v>0.462</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="M138" s="4">
         <f t="shared" si="7"/>
         <v>0.4778</v>
       </c>
     </row>
-    <row r="139" ht="15.75" spans="2:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B139" s="3">
         <v>26.77</v>
       </c>
@@ -5836,30 +5286,30 @@
       </c>
       <c r="M139" s="4">
         <f t="shared" si="7"/>
-        <v>24.676</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" spans="2:13">
+        <v>24.675999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B140" s="3">
-        <v>0.688</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C140" s="3">
-        <v>0.549</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D140" s="3">
-        <v>0.683</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="E140" s="3">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F140" s="3">
-        <v>0.564</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="G140" s="3">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="H140" s="3">
-        <v>0.472</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="I140" s="3">
         <v>0.433</v>
@@ -5868,14 +5318,14 @@
         <v>0.62</v>
       </c>
       <c r="K140" s="3">
-        <v>0.509</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="M140" s="4">
         <f t="shared" si="7"/>
-        <v>0.5334</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" spans="2:13">
+        <v>0.53339999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B141" s="3">
         <v>23.51</v>
       </c>
@@ -5908,49 +5358,49 @@
       </c>
       <c r="M141" s="4">
         <f t="shared" si="7"/>
-        <v>22.329</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" spans="2:13">
+        <v>22.329000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B142" s="3">
-        <v>0.617</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C142" s="3">
-        <v>0.549</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D142" s="3">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="E142" s="3">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F142" s="3">
-        <v>0.696</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="G142" s="3">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="H142" s="3">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="I142" s="3">
         <v>0.375</v>
       </c>
       <c r="J142" s="3">
-        <v>0.541</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="K142" s="3">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="M142" s="4">
         <f t="shared" si="7"/>
-        <v>0.4959</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" spans="13:13">
+        <v>0.49590000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M143" s="4"/>
     </row>
-    <row r="144" ht="15.75" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -5989,43 +5439,43 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="145" ht="15.75" spans="2:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B145" s="3">
-        <v>0.635</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="C145" s="3">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D145" s="3">
         <v>0.67</v>
       </c>
       <c r="E145" s="3">
-        <v>0.343</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="F145" s="3">
-        <v>0.671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="G145" s="3">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="H145" s="3">
-        <v>0.688</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="I145" s="3">
         <v>0.4</v>
       </c>
       <c r="J145" s="3">
-        <v>0.581</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="K145" s="3">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="M145" s="4">
         <f t="shared" si="7"/>
-        <v>0.5321</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" spans="2:13">
+        <v>0.53210000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B146" s="3">
         <v>22.75</v>
       </c>
@@ -6058,46 +5508,46 @@
       </c>
       <c r="M146" s="4">
         <f t="shared" si="7"/>
-        <v>22.309</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" spans="2:13">
+        <v>22.309000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B147" s="3">
         <v>0.627</v>
       </c>
       <c r="C147" s="3">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D147" s="3">
-        <v>0.664</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="E147" s="3">
-        <v>0.351</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="F147" s="3">
-        <v>0.664</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="G147" s="3">
-        <v>0.426</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="H147" s="3">
-        <v>0.671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="I147" s="3">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="J147" s="3">
-        <v>0.573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="K147" s="3">
         <v>0.373</v>
       </c>
       <c r="M147" s="4">
         <f t="shared" si="7"/>
-        <v>0.5283</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" spans="2:13">
+        <v>0.52829999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B148" s="3">
         <v>22.68</v>
       </c>
@@ -6130,10 +5580,10 @@
       </c>
       <c r="M148" s="4">
         <f t="shared" si="7"/>
-        <v>22.229</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" spans="2:13">
+        <v>22.228999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B149" s="3">
         <v>0.623</v>
       </c>
@@ -6141,35 +5591,35 @@
         <v>0.53</v>
       </c>
       <c r="D149" s="3">
-        <v>0.658</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="E149" s="3">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="F149" s="3">
-        <v>0.661</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="G149" s="3">
         <v>0.438</v>
       </c>
       <c r="H149" s="3">
-        <v>0.669</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="I149" s="3">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="J149" s="3">
-        <v>0.569</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="K149" s="3">
         <v>0.372</v>
       </c>
       <c r="M149" s="4">
         <f t="shared" si="7"/>
-        <v>0.5266</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" spans="2:13">
+        <v>0.52659999999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B150" s="3">
         <v>22.82</v>
       </c>
@@ -6202,27 +5652,27 @@
       </c>
       <c r="M150" s="4">
         <f t="shared" si="7"/>
-        <v>22.322</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" spans="2:13">
+        <v>22.321999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B151" s="3">
         <v>0.627</v>
       </c>
       <c r="C151" s="3">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D151" s="3">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E151" s="3">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F151" s="3">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="G151" s="3">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H151" s="3">
         <v>0.67</v>
@@ -6231,7 +5681,7 @@
         <v>0.4</v>
       </c>
       <c r="J151" s="3">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="K151" s="3">
         <v>0.372</v>
@@ -6241,7 +5691,7 @@
         <v>0.5272</v>
       </c>
     </row>
-    <row r="152" ht="15.75" spans="2:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B152" s="3">
         <v>25.48</v>
       </c>
@@ -6280,46 +5730,46 @@
         <v>24.6763636363636</v>
       </c>
     </row>
-    <row r="153" ht="15.75" spans="2:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B153" s="3">
-        <v>0.694</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="C153" s="3">
-        <v>0.605</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D153" s="3">
-        <v>0.722</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E153" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="F153" s="3">
-        <v>0.704</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="G153" s="3">
-        <v>0.487</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="H153" s="3">
-        <v>0.758</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="I153" s="3">
-        <v>0.468</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="J153" s="3">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="K153" s="3">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="L153" s="5">
-        <v>0.531</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="M153" s="4">
         <f>AVERAGE(B153:L153)</f>
         <v>0.586090909090909</v>
       </c>
     </row>
-    <row r="154" ht="15.75" spans="2:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B154" s="3">
         <v>22.73</v>
       </c>
@@ -6355,7 +5805,7 @@
         <v>22.227</v>
       </c>
     </row>
-    <row r="155" ht="15.75" spans="2:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B155" s="3">
         <v>0.623</v>
       </c>
@@ -6363,41 +5813,40 @@
         <v>0.53</v>
       </c>
       <c r="D155" s="3">
-        <v>0.654</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="E155" s="3">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="F155" s="3">
-        <v>0.655</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="G155" s="3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="H155" s="3">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I155" s="3">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="J155" s="3">
-        <v>0.567</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="K155" s="3">
         <v>0.372</v>
       </c>
       <c r="M155" s="4">
         <f t="shared" si="7"/>
-        <v>0.5318</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75"/>
-    <row r="157" ht="15.75" spans="1:13">
+        <v>0.53180000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="8">
-        <v>40.09</v>
+        <v>40.090000000000003</v>
       </c>
       <c r="C157" s="8">
         <v>39.97</v>
@@ -6409,7 +5858,7 @@
         <v>46.73</v>
       </c>
       <c r="F157" s="8">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="G157" s="8">
         <v>40.18</v>
@@ -6424,57 +5873,57 @@
         <v>40.98</v>
       </c>
       <c r="K157" s="8">
-        <v>38.77</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="L157" s="10"/>
       <c r="M157" s="11">
-        <f>AVERAGE(B157:K157)</f>
-        <v>41.127</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" spans="2:13">
+        <f t="shared" ref="M157:M164" si="8">AVERAGE(B157:K157)</f>
+        <v>41.127000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B158" s="9">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="C158" s="9">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="D158" s="9">
-        <v>0.977</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="E158" s="9">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F158" s="9">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="G158" s="9">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H158" s="9">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I158" s="9">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="J158" s="9">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="K158" s="9">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="L158" s="10"/>
       <c r="M158" s="11">
-        <f>AVERAGE(B158:K158)</f>
-        <v>0.9753</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" spans="2:13">
+        <f t="shared" si="8"/>
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B159" s="9">
-        <v>40.45</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="C159" s="9">
-        <v>40.52</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="D159" s="9">
         <v>42.32</v>
@@ -6483,7 +5932,7 @@
         <v>46.83</v>
       </c>
       <c r="F159" s="9">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="G159" s="9">
         <v>40.31</v>
@@ -6492,7 +5941,7 @@
         <v>42.26</v>
       </c>
       <c r="I159" s="9">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="J159" s="9">
         <v>41.18</v>
@@ -6502,53 +5951,53 @@
       </c>
       <c r="L159" s="10"/>
       <c r="M159" s="11">
-        <f>AVERAGE(B159:K159)</f>
+        <f t="shared" si="8"/>
         <v>41.302</v>
       </c>
     </row>
-    <row r="160" ht="15.75" spans="2:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B160" s="9">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C160" s="9">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D160" s="9">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E160" s="9">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="F160" s="9">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="G160" s="9">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="H160" s="9">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I160" s="9">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="J160" s="9">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K160" s="9">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="L160" s="10"/>
       <c r="M160" s="11">
-        <f>AVERAGE(B160:K160)</f>
-        <v>0.9763</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" spans="2:13">
+        <f t="shared" si="8"/>
+        <v>0.97629999999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B161" s="9">
         <v>39.07</v>
       </c>
       <c r="C161" s="9">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D161" s="9">
         <v>42.1</v>
@@ -6560,64 +6009,64 @@
         <v>40.46</v>
       </c>
       <c r="G161" s="9">
-        <v>39.59</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="H161" s="9">
         <v>41.29</v>
       </c>
       <c r="I161" s="9">
-        <v>39.13</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="J161" s="9">
         <v>39.61</v>
       </c>
       <c r="K161" s="9">
-        <v>37.98</v>
+        <v>37.979999999999997</v>
       </c>
       <c r="L161" s="10"/>
       <c r="M161" s="11">
-        <f>AVERAGE(B161:K161)</f>
+        <f t="shared" si="8"/>
         <v>40.436</v>
       </c>
     </row>
-    <row r="162" ht="15.75" spans="2:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B162" s="9">
         <v>0.95</v>
       </c>
       <c r="C162" s="9">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D162" s="9">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E162" s="9">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="F162" s="9">
-        <v>0.979</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="G162" s="9">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="H162" s="9">
-        <v>0.977</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="I162" s="9">
         <v>0.96</v>
       </c>
       <c r="J162" s="9">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="K162" s="9">
         <v>0.95</v>
       </c>
       <c r="L162" s="10"/>
       <c r="M162" s="11">
-        <f>AVERAGE(B162:K162)</f>
-        <v>0.9621</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" spans="2:13">
+        <f t="shared" si="8"/>
+        <v>0.96209999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B163" s="9">
         <v>39.97</v>
       </c>
@@ -6631,10 +6080,10 @@
         <v>46.51</v>
       </c>
       <c r="F163" s="9">
-        <v>40.62</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="G163" s="9">
-        <v>40.16</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="H163" s="9">
         <v>41.92</v>
@@ -6643,41 +6092,41 @@
         <v>39.32</v>
       </c>
       <c r="J163" s="9">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K163" s="9">
         <v>38.6</v>
       </c>
       <c r="L163" s="10"/>
       <c r="M163" s="11">
-        <f>AVERAGE(B163:K163)</f>
-        <v>40.993</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" spans="2:13">
+        <f t="shared" si="8"/>
+        <v>40.993000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B164" s="9">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C164" s="9">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D164" s="9">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E164" s="9">
-        <v>0.979</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="F164" s="9">
-        <v>0.982</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="G164" s="9">
-        <v>0.973</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H164" s="9">
-        <v>0.982</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I164" s="9">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="J164" s="9">
         <v>0.97</v>
@@ -6687,16 +6136,16 @@
       </c>
       <c r="L164" s="10"/>
       <c r="M164" s="11">
-        <f>AVERAGE(B164:K164)</f>
-        <v>0.9717</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" spans="2:13">
+        <f t="shared" si="8"/>
+        <v>0.97170000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B165" s="9">
         <v>40.21</v>
       </c>
       <c r="C165" s="9">
-        <v>40.38</v>
+        <v>40.380000000000003</v>
       </c>
       <c r="D165" s="9">
         <v>42.15</v>
@@ -6714,63 +6163,63 @@
         <v>42.03</v>
       </c>
       <c r="I165" s="9">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="J165" s="9">
-        <v>40.23</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="K165" s="9">
-        <v>39.45</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="L165" s="10"/>
       <c r="M165" s="11">
-        <f t="shared" ref="M165:M181" si="8">AVERAGE(B165:K165)</f>
+        <f t="shared" ref="M165:M181" si="9">AVERAGE(B165:K165)</f>
         <v>41.2</v>
       </c>
     </row>
-    <row r="166" ht="15.75" spans="2:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B166" s="9">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C166" s="9">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D166" s="9">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E166" s="9">
         <v>0.98</v>
       </c>
       <c r="F166" s="9">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G166" s="9">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="H166" s="9">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="I166" s="9">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="J166" s="9">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="K166" s="9">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="L166" s="10"/>
       <c r="M166" s="11">
-        <f t="shared" si="8"/>
-        <v>0.9707</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" spans="2:13">
+        <f t="shared" si="9"/>
+        <v>0.97070000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B167" s="9">
         <v>39.28</v>
       </c>
       <c r="C167" s="9">
-        <v>39.16</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="D167" s="9">
         <v>41.5</v>
@@ -6798,50 +6247,50 @@
       </c>
       <c r="L167" s="10"/>
       <c r="M167" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.4</v>
       </c>
     </row>
-    <row r="168" ht="15.75" spans="2:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B168" s="9">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="C168" s="9">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D168" s="9">
         <v>0.97</v>
       </c>
       <c r="E168" s="9">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="F168" s="9">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="G168" s="9">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="H168" s="9">
-        <v>0.973</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="I168" s="9">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J168" s="9">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K168" s="9">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="L168" s="10"/>
       <c r="M168" s="11">
-        <f t="shared" si="8"/>
-        <v>0.9612</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <f t="shared" si="9"/>
+        <v>0.96120000000000005</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6854,11 +6303,11 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="M170" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" ht="15.75" spans="2:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6870,11 +6319,11 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="M171" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" ht="15.75" spans="2:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6886,11 +6335,11 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="M172" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" ht="15.75" spans="2:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6902,11 +6351,11 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="M173" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" ht="15.75" spans="2:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6918,11 +6367,11 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="M174" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" ht="15.75" spans="2:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6934,11 +6383,11 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="M175" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" ht="15.75" spans="2:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6950,11 +6399,11 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="M176" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" ht="15.75" spans="2:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6966,11 +6415,11 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="M177" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" ht="15.75" spans="2:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6982,11 +6431,11 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="M178" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" ht="15.75" spans="2:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6998,11 +6447,11 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="M179" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" ht="15.75" spans="2:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -7014,11 +6463,11 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="M180" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="181" ht="15.75" spans="2:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -7030,29 +6479,236 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="M181" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="182" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="M183" s="4" t="e">
+        <f t="shared" ref="M183:M194" si="10">AVERAGE(B183:K183)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="M184" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="M185" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="M186" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="M187" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="M188" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="M189" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="M190" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="M191" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="M192" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="M193" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="M194" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A20:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1 E25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/MoLi_Denoi_Results-11-15.xlsx
+++ b/Data/MoLi_Denoi_Results-11-15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="11190"/>
+    <workbookView windowWidth="17535" windowHeight="11190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mixed_KAIST" sheetId="2" r:id="rId1"/>
@@ -85,14 +85,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,13 +625,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,118 +643,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,40 +759,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,7 +1159,7 @@
   <sheetPr/>
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" topLeftCell="A153" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" topLeftCell="A153" workbookViewId="0">
       <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
@@ -7288,8 +7281,8 @@
   <sheetPr/>
   <dimension ref="A20:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
